--- a/20241201_DART전자공시_REF/Data/Config.xlsx
+++ b/20241201_DART전자공시_REF/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPATH\4_강의후복습\20241208_DART전자공시_ref\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPATH\6_이력서작성용\20241201_DART전자공시_REF\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9385BBC-5B49-435D-8A0B-7FA0E1EA5B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149244B0-93F6-4062-81E7-66FD654DA0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16200" yWindow="-15270" windowWidth="16965" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16800" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -91,15 +91,15 @@
   </si>
   <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>OrchestratorQueueName</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
@@ -168,69 +168,77 @@
     <t>메일내용</t>
   </si>
   <si>
-    <t xml:space="preserve">DART 내용입니다. - RPA 로봇 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DART 제목입니다.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>DartQueue</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>cplus1004@gmail.com</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>DartURL</t>
-  </si>
-  <si>
-    <t>DartURL</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>KillProcess</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>chrome,msedge</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>운영자메일</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>cplus1004@outlook.kr</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>검색어</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>아가방</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>시작일자</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>종료일자</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Data\Output</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DART 내용입니다. 
+{0} {1}
+- RPA 로봇 - </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> DART 제목입니다. {0}</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -304,36 +312,42 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -649,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -702,7 +716,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -713,13 +727,13 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.5"/>
     <row r="5" spans="1:26" ht="29">
       <c r="A5" t="s">
         <v>20</v>
@@ -731,63 +745,70 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:26" s="7" customFormat="1" ht="17">
+      <c r="A6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="7" customFormat="1" ht="16.5">
+      <c r="A7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="17">
+      <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>48</v>
+      <c r="B8" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="5" t="s">
+    <row r="9" spans="1:26" ht="51">
+      <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>47</v>
+      <c r="B9" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:26" ht="17">
+      <c r="A10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="11" t="s">
         <v>54</v>
       </c>
+      <c r="B12" s="12">
+        <v>45268</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="9" t="s">
+    <row r="13" spans="1:26">
+      <c r="A13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B9" t="s">
-        <v>56</v>
+      <c r="B13" s="12">
+        <v>45634</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="12">
-        <v>45268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="12">
-        <v>45634</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1773,8 +1794,9 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2938,7 +2960,7 @@
     <row r="987" ht="14.25" customHeight="1"/>
     <row r="988" ht="14.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2948,7 +2970,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2996,20 +3018,12 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="8"/>
@@ -4012,7 +4026,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/20241201_DART전자공시_REF/Data/Config.xlsx
+++ b/20241201_DART전자공시_REF/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPATH\6_이력서작성용\20241201_DART전자공시_REF\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149244B0-93F6-4062-81E7-66FD654DA0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85384C22-8BCE-47E3-9056-408A21F212DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16800" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5160" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1806,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1868,7 +1868,7 @@
         <v>33</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>41</v>
